--- a/data/income_statement/2digits/size/63_IS_SMALL.xlsx
+++ b/data/income_statement/2digits/size/63_IS_SMALL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>63-Information service activities</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>63-Information service activities</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,266 +841,301 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
-        <v>95231.99284000001</v>
+        <v>100570.49726</v>
       </c>
       <c r="D5" s="47" t="n">
-        <v>120231.7681</v>
+        <v>126944.65607</v>
       </c>
       <c r="E5" s="47" t="n">
-        <v>139843.49674</v>
+        <v>148542.48671</v>
       </c>
       <c r="F5" s="47" t="n">
-        <v>176594.73723</v>
+        <v>178768.09011</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>230301.40386</v>
+        <v>228845.08152</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>312044.20532</v>
+        <v>320116.40353</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>332409.01377</v>
+        <v>354115.6082200001</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>419094.36348</v>
+        <v>456823.67999</v>
       </c>
       <c r="K5" s="47" t="n">
-        <v>503538.52632</v>
+        <v>549549.94329</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>659776.28244</v>
+        <v>666178.54652</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>901814.6216900001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>941746.7013899999</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>1070528.722</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
-        <v>78518.79431999999</v>
+        <v>84976.40601000001</v>
       </c>
       <c r="D6" s="48" t="n">
-        <v>100335.20565</v>
+        <v>107899.76302</v>
       </c>
       <c r="E6" s="48" t="n">
-        <v>125966.87523</v>
+        <v>134939.40723</v>
       </c>
       <c r="F6" s="48" t="n">
-        <v>161301.8095</v>
+        <v>163597.73904</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>209286.35709</v>
+        <v>208081.44432</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>281837.32973</v>
+        <v>287061.2664</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>281568.68873</v>
+        <v>303656.86767</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>345898.37247</v>
+        <v>383103.71999</v>
       </c>
       <c r="K6" s="48" t="n">
-        <v>426975.64922</v>
+        <v>469199.3999199999</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>521155.64606</v>
+        <v>529352.10328</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>704018.6033899999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>741165.2706</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>856606.75</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
-        <v>15629.33453</v>
+        <v>14387.88035</v>
       </c>
       <c r="D7" s="48" t="n">
-        <v>18266.23084</v>
+        <v>17654.95104</v>
       </c>
       <c r="E7" s="48" t="n">
-        <v>10653.87433</v>
+        <v>10388.97813</v>
       </c>
       <c r="F7" s="48" t="n">
-        <v>13003.5545</v>
+        <v>13004.00175</v>
       </c>
       <c r="G7" s="48" t="n">
-        <v>17497.78974</v>
+        <v>17359.78033</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>26827.07549</v>
+        <v>29671.28568</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>44290.03889</v>
+        <v>43827.06568</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>59508.2331</v>
+        <v>59868.00427</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>72058.21531</v>
+        <v>71294.82063</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>128728.49676</v>
+        <v>125486.80362</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>179225.52288</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>181242.917</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>194618.564</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
-        <v>1083.86399</v>
+        <v>1206.2109</v>
       </c>
       <c r="D8" s="48" t="n">
-        <v>1630.33161</v>
+        <v>1389.94201</v>
       </c>
       <c r="E8" s="48" t="n">
-        <v>3222.74718</v>
+        <v>3214.101349999999</v>
       </c>
       <c r="F8" s="48" t="n">
-        <v>2289.37323</v>
+        <v>2166.34932</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>3517.25703</v>
+        <v>3403.85687</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>3379.800099999999</v>
+        <v>3383.85145</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>6550.286150000001</v>
+        <v>6631.67487</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>13687.75791</v>
+        <v>13851.95573</v>
       </c>
       <c r="K8" s="48" t="n">
-        <v>4504.66179</v>
+        <v>9055.722740000001</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>9892.139620000002</v>
+        <v>11339.63962</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>18570.49542</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>19338.51379</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>19303.408</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
-        <v>902.22274</v>
+        <v>959.64683</v>
       </c>
       <c r="D9" s="47" t="n">
-        <v>1084.52298</v>
+        <v>3019.5955</v>
       </c>
       <c r="E9" s="47" t="n">
-        <v>1379.3245</v>
+        <v>1569.72507</v>
       </c>
       <c r="F9" s="47" t="n">
-        <v>3117.15995</v>
+        <v>3123.54509</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>2698.43319</v>
+        <v>2618.02893</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>3218.77369</v>
+        <v>2450.42098</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>889.6009</v>
+        <v>913.46998</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>4707.70746</v>
+        <v>4799.28159</v>
       </c>
       <c r="K9" s="47" t="n">
-        <v>4708.90984</v>
+        <v>4890.99417</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>5300.99035</v>
+        <v>7778.0055</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>8776.21039</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>11679.50348</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>15511.58</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
-        <v>843.9073000000001</v>
+        <v>901.3313900000001</v>
       </c>
       <c r="D10" s="48" t="n">
-        <v>1045.18531</v>
+        <v>2937.67118</v>
       </c>
       <c r="E10" s="48" t="n">
-        <v>921.9282099999999</v>
+        <v>1054.99851</v>
       </c>
       <c r="F10" s="48" t="n">
-        <v>1978.00064</v>
+        <v>1986.91053</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>1521.76435</v>
+        <v>1440.15776</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>3034.77879</v>
+        <v>2224.64622</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>843.93619</v>
+        <v>868.04982</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>4006.31803</v>
+        <v>4097.89216</v>
       </c>
       <c r="K10" s="48" t="n">
-        <v>4205.74929</v>
+        <v>4387.685280000001</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>4976.81644</v>
+        <v>7454.03843</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>8612.397120000001</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>11485.46771</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>15250.314</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
         <v>41.59347999999999</v>
       </c>
       <c r="D11" s="48" t="n">
-        <v>39.17767</v>
+        <v>48.98826</v>
       </c>
       <c r="E11" s="48" t="n">
         <v>456.39629</v>
       </c>
       <c r="F11" s="48" t="n">
-        <v>1117.4666</v>
+        <v>1114.94185</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1174.66884</v>
+        <v>1175.87117</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>174.25514</v>
+        <v>216.035</v>
       </c>
       <c r="I11" s="48" t="n">
         <v>45.42016</v>
@@ -1208,28 +1144,33 @@
         <v>700.65523</v>
       </c>
       <c r="K11" s="48" t="n">
-        <v>95.48634999999999</v>
+        <v>95.63468999999999</v>
       </c>
       <c r="L11" s="48" t="n">
-        <v>86.28194999999999</v>
+        <v>85.99292</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>103.84036</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>103.72489</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>151.632</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>16.72196</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>0.16</v>
+        <v>32.93606</v>
       </c>
       <c r="E12" s="48" t="n">
-        <v>1</v>
+        <v>58.33027</v>
       </c>
       <c r="F12" s="48" t="n">
         <v>21.69271</v>
@@ -1241,7 +1182,7 @@
         <v>9.73976</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>0.24455</v>
+        <v>0</v>
       </c>
       <c r="J12" s="48" t="n">
         <v>0.7342000000000001</v>
@@ -1250,100 +1191,115 @@
         <v>407.6741999999999</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>237.89196</v>
+        <v>237.97415</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>59.97291000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>90.31088000000001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>109.634</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
-        <v>94329.77009999999</v>
+        <v>99610.85043000001</v>
       </c>
       <c r="D13" s="47" t="n">
-        <v>119147.24512</v>
+        <v>123925.06057</v>
       </c>
       <c r="E13" s="47" t="n">
-        <v>138464.17224</v>
+        <v>146972.76164</v>
       </c>
       <c r="F13" s="47" t="n">
-        <v>173477.57728</v>
+        <v>175644.54502</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>227602.97067</v>
+        <v>226227.05259</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>308825.43163</v>
+        <v>317665.98255</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>331519.41287</v>
+        <v>353202.13824</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>414386.65602</v>
+        <v>452024.3983999999</v>
       </c>
       <c r="K13" s="47" t="n">
-        <v>498829.61648</v>
+        <v>544658.94912</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>654475.2920899999</v>
+        <v>658400.54102</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>893038.4112999999</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>930067.19791</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>1055017.142</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
-        <v>56417.50558</v>
+        <v>61191.20251</v>
       </c>
       <c r="D14" s="47" t="n">
-        <v>76831.59183</v>
+        <v>84167.14038</v>
       </c>
       <c r="E14" s="47" t="n">
-        <v>77972.1612</v>
+        <v>83432.80434</v>
       </c>
       <c r="F14" s="47" t="n">
-        <v>100605.35572</v>
+        <v>104124.73241</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>146661.0198</v>
+        <v>142145.29629</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>186721.03261</v>
+        <v>192287.35566</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>202162.93698</v>
+        <v>215020.17024</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>251129.63243</v>
+        <v>282309.26396</v>
       </c>
       <c r="K14" s="47" t="n">
-        <v>314227.71482</v>
+        <v>336051.9854</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>398108.51387</v>
+        <v>396078.88995</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>593958.2943099999</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>629812.69624</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>671967.825</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
-        <v>4237.63725</v>
+        <v>3855.79824</v>
       </c>
       <c r="D15" s="48" t="n">
-        <v>2936.96161</v>
+        <v>2482.23445</v>
       </c>
       <c r="E15" s="48" t="n">
         <v>1853.21951</v>
@@ -1352,112 +1308,127 @@
         <v>2403.95671</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>7968.4955</v>
+        <v>7569.5988</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>13194.75983</v>
+        <v>12963.85305</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>7712.345189999999</v>
+        <v>11163.19219</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>6193.4451</v>
+        <v>7778.28976</v>
       </c>
       <c r="K15" s="48" t="n">
-        <v>12621.84281</v>
+        <v>12516.18256</v>
       </c>
       <c r="L15" s="48" t="n">
         <v>1659.47039</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>11592.99092</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>11630.17174</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>17980.423</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
-        <v>13107.63232</v>
+        <v>11998.42168</v>
       </c>
       <c r="D16" s="48" t="n">
-        <v>7085.085480000001</v>
+        <v>8392.560380000001</v>
       </c>
       <c r="E16" s="48" t="n">
-        <v>9886.81055</v>
+        <v>12409.09516</v>
       </c>
       <c r="F16" s="48" t="n">
-        <v>19768.87582</v>
+        <v>19291.69015</v>
       </c>
       <c r="G16" s="48" t="n">
-        <v>16853.77539</v>
+        <v>16469.78124</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>17403.70631</v>
+        <v>18908.25473</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>29242.2226</v>
+        <v>28261.9936</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>43250.74837</v>
+        <v>53380.70347</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>73210.74021</v>
+        <v>83150.74462</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>51137.9699</v>
+        <v>57842.79479000001</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>120546.51633</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>132528.09341</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>155534.749</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>38786.46687</v>
+        <v>45112.49345</v>
       </c>
       <c r="D17" s="48" t="n">
-        <v>66809.54474</v>
+        <v>73292.34555</v>
       </c>
       <c r="E17" s="48" t="n">
-        <v>66231.37114</v>
+        <v>69169.72967</v>
       </c>
       <c r="F17" s="48" t="n">
-        <v>78397.67084999999</v>
+        <v>82394.23321000001</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>121767.97088</v>
+        <v>118105.91625</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>156117.13901</v>
+        <v>160409.82042</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>164707.12674</v>
+        <v>175093.742</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>199088.19587</v>
+        <v>218881.07291</v>
       </c>
       <c r="K17" s="48" t="n">
-        <v>228272.459</v>
+        <v>240262.38542</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>345279.20278</v>
+        <v>336544.75397</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>461589.94006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>485629.31522</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>498036.806</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
-        <v>285.76914</v>
+        <v>224.48914</v>
       </c>
       <c r="D18" s="48" t="n">
         <v>0</v>
@@ -1469,7 +1440,7 @@
         <v>34.85234</v>
       </c>
       <c r="G18" s="48" t="n">
-        <v>70.77803</v>
+        <v>0</v>
       </c>
       <c r="H18" s="48" t="n">
         <v>5.42746</v>
@@ -1478,7 +1449,7 @@
         <v>501.24245</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>2597.24309</v>
+        <v>2269.19782</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>122.6728</v>
@@ -1487,97 +1458,112 @@
         <v>31.8708</v>
       </c>
       <c r="M18" s="48" t="n">
-        <v>228.847</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>25.11587</v>
+      </c>
+      <c r="N18" s="48" t="n">
+        <v>415.847</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
-        <v>37912.26452</v>
+        <v>38419.64792</v>
       </c>
       <c r="D19" s="47" t="n">
-        <v>42315.65329</v>
+        <v>39757.92019</v>
       </c>
       <c r="E19" s="47" t="n">
-        <v>60492.01104</v>
+        <v>63539.95729999999</v>
       </c>
       <c r="F19" s="47" t="n">
-        <v>72872.22156000001</v>
+        <v>71519.81260999999</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>80941.95087</v>
+        <v>84081.75629999999</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>122104.39902</v>
+        <v>125378.62689</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>129356.47589</v>
+        <v>138181.968</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>163257.02359</v>
+        <v>169715.13444</v>
       </c>
       <c r="K19" s="47" t="n">
-        <v>184601.90166</v>
+        <v>208606.96372</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>256366.77822</v>
+        <v>262321.65107</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>299080.11699</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>300254.50167</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>383049.317</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
-        <v>36586.11214</v>
+        <v>38223.79085</v>
       </c>
       <c r="D20" s="47" t="n">
-        <v>40437.63976999999</v>
+        <v>39590.50693</v>
       </c>
       <c r="E20" s="47" t="n">
-        <v>56494.92136</v>
+        <v>54393.17255</v>
       </c>
       <c r="F20" s="47" t="n">
-        <v>71935.97209000001</v>
+        <v>68477.35734999999</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>91726.00506</v>
+        <v>87048.4602</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>121781.32603</v>
+        <v>120300.34543</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>124791.926</v>
+        <v>126304.0535</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>137780.09883</v>
+        <v>157945.9915</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>171415.9398</v>
+        <v>186786.08902</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>221058.5724</v>
+        <v>229746.92426</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>221456.14341</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>236089.48164</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>272739.928</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2326.18871</v>
+        <v>2281.99063</v>
       </c>
       <c r="D21" s="48" t="n">
-        <v>3560.33512</v>
+        <v>3555.716</v>
       </c>
       <c r="E21" s="48" t="n">
         <v>4393.69688</v>
@@ -1586,202 +1572,227 @@
         <v>2065.18292</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>1210.67916</v>
+        <v>1204.73105</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>1804.99155</v>
+        <v>1699.47359</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>2543.14739</v>
+        <v>2384.38241</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>4250.189969999999</v>
+        <v>3908.12516</v>
       </c>
       <c r="K21" s="48" t="n">
-        <v>3532.13148</v>
+        <v>3174.41115</v>
       </c>
       <c r="L21" s="48" t="n">
-        <v>5894.502</v>
+        <v>5879.166</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>7588.60732</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>5186.850570000001</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>7913.878</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>5569.95142</v>
+        <v>5564.8853</v>
       </c>
       <c r="D22" s="48" t="n">
-        <v>7160.607950000001</v>
+        <v>7355.151699999999</v>
       </c>
       <c r="E22" s="48" t="n">
-        <v>15624.49206</v>
+        <v>15741.37032</v>
       </c>
       <c r="F22" s="48" t="n">
-        <v>22941.90309</v>
+        <v>21776.92924</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>27679.60457</v>
+        <v>23534.18094</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>38583.67682</v>
+        <v>35612.659</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>39998.84719</v>
+        <v>39725.11981</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>38665.00087</v>
+        <v>44604.34217</v>
       </c>
       <c r="K22" s="48" t="n">
-        <v>48670.2096</v>
+        <v>50727.56226999999</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>63549.01045</v>
+        <v>62941.79688</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>56016.92173</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>57453.23979000001</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>63486.862</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>28689.97201</v>
+        <v>30376.91492</v>
       </c>
       <c r="D23" s="48" t="n">
-        <v>29716.6967</v>
+        <v>28679.63923</v>
       </c>
       <c r="E23" s="48" t="n">
-        <v>36476.73242</v>
+        <v>34258.10535</v>
       </c>
       <c r="F23" s="48" t="n">
-        <v>46928.88608</v>
+        <v>44635.24518999999</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>62835.72133</v>
+        <v>62309.54821</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>81392.65766</v>
+        <v>82988.21284000001</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>82249.93142000001</v>
+        <v>84194.55128</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>94864.90798999999</v>
+        <v>109433.52417</v>
       </c>
       <c r="K23" s="48" t="n">
-        <v>119213.59872</v>
+        <v>132884.1156</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>151615.05995</v>
+        <v>160925.96138</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>157850.61436</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>173449.39128</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>201339.188</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>1326.15238</v>
+        <v>195.85707</v>
       </c>
       <c r="D24" s="47" t="n">
-        <v>1878.01352</v>
+        <v>167.41326</v>
       </c>
       <c r="E24" s="47" t="n">
-        <v>3997.08968</v>
+        <v>9146.784750000001</v>
       </c>
       <c r="F24" s="47" t="n">
-        <v>936.24947</v>
+        <v>3042.45526</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>-10784.05419</v>
+        <v>-2966.7039</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>323.07299</v>
+        <v>5078.28146</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>4564.54989</v>
+        <v>11877.9145</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>25476.92476</v>
+        <v>11769.14294</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>13185.96186</v>
+        <v>21820.8747</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>35308.20582</v>
+        <v>32574.72681</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>77623.97358000002</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>64165.02003</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>110309.389</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
-        <v>1948.86922</v>
+        <v>1810.27269</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>1543.32497</v>
+        <v>1916.81946</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>2085.44046</v>
+        <v>2499.25058</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>6200.111089999999</v>
+        <v>7085.7772</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>4620.21187</v>
+        <v>4230.19879</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>6493.447710000001</v>
+        <v>9897.85482</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>11547.30883</v>
+        <v>16066.42267</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>12267.10914</v>
+        <v>20428.06301</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>13775.11267</v>
+        <v>24299.85552</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>59088.5014</v>
+        <v>69082.10698000001</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>30437.1489</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>54914.27015</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>62627.534</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>0</v>
       </c>
       <c r="D26" s="48" t="n">
-        <v>10.68447</v>
+        <v>0</v>
       </c>
       <c r="E26" s="48" t="n">
-        <v>27.90307</v>
+        <v>0</v>
       </c>
       <c r="F26" s="48" t="n">
-        <v>7.97885</v>
+        <v>0</v>
       </c>
       <c r="G26" s="48" t="n">
-        <v>54.89212000000001</v>
+        <v>0</v>
       </c>
       <c r="H26" s="48" t="n">
         <v>0</v>
@@ -1793,7 +1804,7 @@
         <v>0</v>
       </c>
       <c r="K26" s="48" t="n">
-        <v>50.20849</v>
+        <v>0.20849</v>
       </c>
       <c r="L26" s="48" t="n">
         <v>51.19324</v>
@@ -1801,11 +1812,16 @@
       <c r="M26" s="48" t="n">
         <v>4.41147</v>
       </c>
-    </row>
-    <row r="27" spans="1:13">
+      <c r="N26" s="48" t="n">
+        <v>8.279999999999999</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>0</v>
@@ -1817,7 +1833,7 @@
         <v>22.69536</v>
       </c>
       <c r="F27" s="48" t="n">
-        <v>4.65063</v>
+        <v>0</v>
       </c>
       <c r="G27" s="48" t="n">
         <v>0</v>
@@ -1840,56 +1856,66 @@
       <c r="M27" s="48" t="n">
         <v>0.49346</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
-        <v>626.36252</v>
+        <v>595.95959</v>
       </c>
       <c r="D28" s="48" t="n">
-        <v>297.72998</v>
+        <v>601.16839</v>
       </c>
       <c r="E28" s="48" t="n">
-        <v>425.57891</v>
+        <v>1005.88698</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>771.1794699999999</v>
+        <v>1547.90223</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>1546.46717</v>
+        <v>1285.4588</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>2009.1346</v>
+        <v>3153.42666</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>2073.99843</v>
+        <v>3769.759480000001</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>1766.26496</v>
+        <v>4262.14784</v>
       </c>
       <c r="K28" s="48" t="n">
-        <v>2507.05438</v>
+        <v>6585.20891</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>7122.360180000001</v>
+        <v>11959.92888</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>9855.853139999999</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>13790.20056</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>12040.41</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>0.53506</v>
       </c>
       <c r="D29" s="48" t="n">
-        <v>44.25238</v>
+        <v>0</v>
       </c>
       <c r="E29" s="48" t="n">
         <v>15.32419</v>
@@ -1898,7 +1924,7 @@
         <v>0</v>
       </c>
       <c r="G29" s="48" t="n">
-        <v>2.52675</v>
+        <v>0</v>
       </c>
       <c r="H29" s="48" t="n">
         <v>772.5662199999999</v>
@@ -1907,10 +1933,10 @@
         <v>715.55592</v>
       </c>
       <c r="J29" s="48" t="n">
-        <v>790.00036</v>
+        <v>788.8618100000001</v>
       </c>
       <c r="K29" s="48" t="n">
-        <v>785.61096</v>
+        <v>781.64475</v>
       </c>
       <c r="L29" s="48" t="n">
         <v>1629.37362</v>
@@ -1918,23 +1944,28 @@
       <c r="M29" s="48" t="n">
         <v>2093.6837</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2814.113</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>14.92815</v>
+        <v>51.0946</v>
       </c>
       <c r="D30" s="48" t="n">
-        <v>2.9528</v>
+        <v>48.17458</v>
       </c>
       <c r="E30" s="48" t="n">
         <v>241.48842</v>
       </c>
       <c r="F30" s="48" t="n">
-        <v>335.17096</v>
+        <v>257.75512</v>
       </c>
       <c r="G30" s="48" t="n">
         <v>206.88097</v>
@@ -1946,49 +1977,54 @@
         <v>4.96747</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>0</v>
+        <v>9.01</v>
       </c>
       <c r="K30" s="48" t="n">
-        <v>22.01084</v>
+        <v>29.3919</v>
       </c>
       <c r="L30" s="48" t="n">
         <v>12.78343</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>34.23581</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>15.29</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>0.002</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
-        <v>10.09642</v>
+        <v>10.53318</v>
       </c>
       <c r="D31" s="48" t="n">
         <v>29.46162</v>
       </c>
       <c r="E31" s="48" t="n">
-        <v>61.92777</v>
+        <v>61.97141000000001</v>
       </c>
       <c r="F31" s="48" t="n">
         <v>55.96158</v>
       </c>
       <c r="G31" s="48" t="n">
-        <v>48.12654</v>
+        <v>47.93516</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>77.13991</v>
+        <v>79.11463000000001</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>51.86672</v>
+        <v>51.77067</v>
       </c>
       <c r="J31" s="48" t="n">
-        <v>168.71924</v>
+        <v>168.97447</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>231.35659</v>
+        <v>233.22461</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>276.6806999999999</v>
@@ -1996,50 +2032,60 @@
       <c r="M31" s="48" t="n">
         <v>1269.31191</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>2198.266</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
-        <v>1137.34575</v>
+        <v>979.27137</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>1061.88177</v>
+        <v>1145.14394</v>
       </c>
       <c r="E32" s="48" t="n">
-        <v>899.45373</v>
+        <v>782.8175200000001</v>
       </c>
       <c r="F32" s="48" t="n">
-        <v>1653.8716</v>
+        <v>1917.82093</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>2124.42243</v>
+        <v>1992.57914</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>2425.16433</v>
+        <v>4192.18436</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>7035.064429999999</v>
+        <v>10042.95576</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>6828.65161</v>
+        <v>12461.81111</v>
       </c>
       <c r="K32" s="48" t="n">
-        <v>7462.99025</v>
+        <v>15535.7869</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>41466.76187</v>
+        <v>46858.88475</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>16735.69925</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>37987.73789</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>40069.636</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>9.211499999999999</v>
@@ -2074,11 +2120,16 @@
       <c r="M33" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="34" spans="1:13">
+      <c r="N33" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>0</v>
@@ -2113,116 +2164,131 @@
       <c r="M34" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
-        <v>150.38982</v>
+        <v>163.66739</v>
       </c>
       <c r="D35" s="48" t="n">
-        <v>96.36194999999999</v>
+        <v>92.87092999999999</v>
       </c>
       <c r="E35" s="48" t="n">
-        <v>387.1605300000001</v>
+        <v>365.15822</v>
       </c>
       <c r="F35" s="48" t="n">
-        <v>3345.25965</v>
+        <v>3280.29899</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>608.5413300000001</v>
+        <v>668.9901599999999</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>1052.61466</v>
+        <v>1543.73496</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>1583.40998</v>
+        <v>1398.96749</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>2713.47297</v>
+        <v>2737.25778</v>
       </c>
       <c r="K35" s="48" t="n">
-        <v>2666.23678</v>
+        <v>1084.74558</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>8465.18627</v>
+        <v>8229.100269999999</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>443.4601599999999</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>-246.85884</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>5496.827</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
-        <v>1856.27185</v>
+        <v>1804.10926</v>
       </c>
       <c r="D36" s="47" t="n">
-        <v>2681.93057</v>
+        <v>2814.6107</v>
       </c>
       <c r="E36" s="47" t="n">
-        <v>2296.28848</v>
+        <v>2218.06612</v>
       </c>
       <c r="F36" s="47" t="n">
-        <v>4958.07294</v>
+        <v>4827.84136</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>4736.121440000001</v>
+        <v>3909.26793</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>4899.13916</v>
+        <v>9046.92598</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>8224.826519999999</v>
+        <v>13479.13347</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>6166.831450000001</v>
+        <v>9500.8632</v>
       </c>
       <c r="K36" s="47" t="n">
-        <v>8146.858990000001</v>
+        <v>13446.73018</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>48963.90046</v>
+        <v>48704.56166</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>25605.46492</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>48914.69215</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>42365.587</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
-        <v>209.52054</v>
+        <v>208.68579</v>
       </c>
       <c r="D37" s="48" t="n">
-        <v>724.0020999999999</v>
+        <v>723.28236</v>
       </c>
       <c r="E37" s="48" t="n">
-        <v>670.96532</v>
+        <v>670.2513200000001</v>
       </c>
       <c r="F37" s="48" t="n">
-        <v>791.84083</v>
+        <v>791.77783</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>615.22957</v>
+        <v>611.22957</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>692.45835</v>
+        <v>691.6913300000001</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>790.78954</v>
+        <v>1192.03014</v>
       </c>
       <c r="J37" s="48" t="n">
-        <v>1084.34192</v>
+        <v>1115.54473</v>
       </c>
       <c r="K37" s="48" t="n">
-        <v>1655.44278</v>
+        <v>1640.79588</v>
       </c>
       <c r="L37" s="48" t="n">
         <v>1227.80033</v>
@@ -2230,20 +2296,25 @@
       <c r="M37" s="48" t="n">
         <v>7650.974429999999</v>
       </c>
-    </row>
-    <row r="38" spans="1:13">
+      <c r="N37" s="48" t="n">
+        <v>1967.946</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
-        <v>116.92804</v>
+        <v>257.46526</v>
       </c>
       <c r="D38" s="48" t="n">
-        <v>770.78783</v>
+        <v>809.75844</v>
       </c>
       <c r="E38" s="48" t="n">
-        <v>370.11199</v>
+        <v>248.78415</v>
       </c>
       <c r="F38" s="48" t="n">
         <v>788.81564</v>
@@ -2252,10 +2323,10 @@
         <v>282.5684</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>697.3576399999999</v>
+        <v>1183.98764</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>1850.44059</v>
+        <v>1849.61459</v>
       </c>
       <c r="J38" s="48" t="n">
         <v>900.94826</v>
@@ -2269,11 +2340,16 @@
       <c r="M38" s="48" t="n">
         <v>984.34456</v>
       </c>
-    </row>
-    <row r="39" spans="1:13">
+      <c r="N38" s="48" t="n">
+        <v>1021.791</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>0</v>
@@ -2282,13 +2358,13 @@
         <v>0</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>6.77681</v>
+        <v>355.74495</v>
       </c>
       <c r="F39" s="48" t="n">
         <v>6.450900000000001</v>
       </c>
       <c r="G39" s="48" t="n">
-        <v>0.5750200000000001</v>
+        <v>0.57208</v>
       </c>
       <c r="H39" s="48" t="n">
         <v>17.8646</v>
@@ -2300,61 +2376,71 @@
         <v>90.71798</v>
       </c>
       <c r="K39" s="48" t="n">
-        <v>43.62412</v>
+        <v>55.65933</v>
       </c>
       <c r="L39" s="48" t="n">
         <v>403.66514</v>
       </c>
       <c r="M39" s="48" t="n">
-        <v>1169.89983</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13">
+        <v>1158.41948</v>
+      </c>
+      <c r="N39" s="48" t="n">
+        <v>58.301</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
-        <v>1405.85809</v>
+        <v>1219.16773</v>
       </c>
       <c r="D40" s="48" t="n">
-        <v>1057.3064</v>
+        <v>1162.43055</v>
       </c>
       <c r="E40" s="48" t="n">
-        <v>1151.24542</v>
+        <v>811.85279</v>
       </c>
       <c r="F40" s="48" t="n">
-        <v>1877.12508</v>
+        <v>1990.47323</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>1641.60025</v>
+        <v>2839.06427</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>2694.84324</v>
+        <v>4915.22001</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>5446.568429999999</v>
+        <v>10100.21453</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>3539.59234</v>
+        <v>6681.567520000001</v>
       </c>
       <c r="K40" s="48" t="n">
-        <v>5246.263279999999</v>
+        <v>10532.83885</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>46157.98974</v>
+        <v>45024.1352</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>15269.62059</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>38580.68382</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>38779.142</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
-        <v>15.072</v>
+        <v>9.896000000000001</v>
       </c>
       <c r="D41" s="48" t="n">
         <v>0</v>
@@ -2369,7 +2455,7 @@
         <v>0</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>0</v>
+        <v>1441.54711</v>
       </c>
       <c r="I41" s="48" t="n">
         <v>0</v>
@@ -2386,11 +2472,16 @@
       <c r="M41" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="42" spans="1:13">
+      <c r="N41" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>0</v>
@@ -2425,128 +2516,148 @@
       <c r="M42" s="48" t="n">
         <v>0</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
-        <v>108.89318</v>
+        <v>108.89448</v>
       </c>
       <c r="D43" s="48" t="n">
-        <v>129.83424</v>
+        <v>119.13935</v>
       </c>
       <c r="E43" s="48" t="n">
-        <v>97.18894</v>
+        <v>131.43291</v>
       </c>
       <c r="F43" s="48" t="n">
-        <v>1493.84049</v>
+        <v>1250.32376</v>
       </c>
       <c r="G43" s="48" t="n">
-        <v>2196.1482</v>
+        <v>175.83361</v>
       </c>
       <c r="H43" s="48" t="n">
-        <v>796.61533</v>
+        <v>796.61529</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>137.02796</v>
+        <v>337.27421</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>551.23095</v>
+        <v>712.08471</v>
       </c>
       <c r="K43" s="48" t="n">
-        <v>521.3878099999999</v>
+        <v>537.29512</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>316.03313</v>
+        <v>1190.54887</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>530.62551</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>540.26986</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>538.407</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
-        <v>968.43899</v>
+        <v>910.6401000000001</v>
       </c>
       <c r="D44" s="47" t="n">
-        <v>915.31652</v>
+        <v>909.56623</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>1933.58064</v>
+        <v>2188.77351</v>
       </c>
       <c r="F44" s="47" t="n">
-        <v>4601.18346</v>
+        <v>4410.7369</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>2530.12272</v>
+        <v>2541.36884</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>2336.07058</v>
+        <v>4304.955899999999</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>2315.59957</v>
+        <v>2741.82606</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>9872.57726</v>
+        <v>12993.45653</v>
       </c>
       <c r="K44" s="47" t="n">
-        <v>4466.90399</v>
+        <v>5777.884690000001</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>7155.50153</v>
+        <v>6082.85228</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>7968.992679999999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>9049.921759999999</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>14236.235</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>964.92714</v>
+        <v>907.12825</v>
       </c>
       <c r="D45" s="48" t="n">
-        <v>912.58901</v>
+        <v>906.83872</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>1933.58064</v>
+        <v>2188.77351</v>
       </c>
       <c r="F45" s="48" t="n">
-        <v>4590.84915</v>
+        <v>4400.40259</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>2526.5361</v>
+        <v>2541.09271</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>2322.87931</v>
+        <v>4295.07512</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>2315.59957</v>
+        <v>2741.82606</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>9819.72142</v>
+        <v>12940.60069</v>
       </c>
       <c r="K45" s="48" t="n">
-        <v>4386.49115</v>
+        <v>5730.6517</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>7104.94243</v>
+        <v>6050.915349999999</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>7690.60004</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>8771.529120000001</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>13535.166</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
         <v>3.51185</v>
@@ -2561,10 +2672,10 @@
         <v>10.33431</v>
       </c>
       <c r="G46" s="48" t="n">
-        <v>3.58662</v>
+        <v>0.27613</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>13.19127</v>
+        <v>9.880780000000001</v>
       </c>
       <c r="I46" s="48" t="n">
         <v>0</v>
@@ -2573,214 +2684,244 @@
         <v>52.85583999999999</v>
       </c>
       <c r="K46" s="48" t="n">
-        <v>80.41284</v>
+        <v>47.23299000000001</v>
       </c>
       <c r="L46" s="48" t="n">
-        <v>50.5591</v>
+        <v>31.93693</v>
       </c>
       <c r="M46" s="48" t="n">
         <v>278.39264</v>
       </c>
-    </row>
-    <row r="47" spans="1:13">
+      <c r="N46" s="48" t="n">
+        <v>701.069</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
-        <v>450.31076</v>
+        <v>-708.6196</v>
       </c>
       <c r="D47" s="47" t="n">
-        <v>-175.9086</v>
+        <v>-1639.94421</v>
       </c>
       <c r="E47" s="47" t="n">
-        <v>1852.66102</v>
+        <v>7239.195699999999</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>-2422.89584</v>
+        <v>889.6542000000002</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>-13430.08648</v>
+        <v>-5187.14188</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>-418.6890399999999</v>
+        <v>1624.2544</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>5571.43263</v>
+        <v>11723.37764</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>21704.62519</v>
+        <v>9702.88622</v>
       </c>
       <c r="K47" s="47" t="n">
-        <v>14347.31155</v>
+        <v>26896.11535</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>38277.30523000001</v>
+        <v>46869.41984999999</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>74486.66488</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>61114.67627</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>116335.101</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
-        <v>1238.43387</v>
+        <v>1206.29725</v>
       </c>
       <c r="D48" s="47" t="n">
-        <v>644.30116</v>
+        <v>1828.83504</v>
       </c>
       <c r="E48" s="47" t="n">
-        <v>1296.80729</v>
+        <v>3010.30317</v>
       </c>
       <c r="F48" s="47" t="n">
-        <v>1806.74925</v>
+        <v>4343.96345</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>5087.272800000001</v>
+        <v>5599.230820000001</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>7826.884410000001</v>
+        <v>11316.01972</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>6473.39644</v>
+        <v>7868.66976</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>3316.87322</v>
+        <v>4781.06924</v>
       </c>
       <c r="K48" s="47" t="n">
-        <v>4893.080720000001</v>
+        <v>6099.531800000001</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>4672.87486</v>
+        <v>5296.02543</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>6256.25333</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>6096.80276</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>9306.790000000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
-        <v>961.21801</v>
+        <v>960.21801</v>
       </c>
       <c r="D49" s="48" t="n">
-        <v>33.21255</v>
+        <v>1268.92736</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>3.102</v>
+        <v>1415.72204</v>
       </c>
       <c r="F49" s="48" t="n">
-        <v>1120.53607</v>
+        <v>2219.89161</v>
       </c>
       <c r="G49" s="48" t="n">
         <v>1875.10464</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>145.03572</v>
+        <v>845.84876</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>623.17835</v>
+        <v>1626.42495</v>
       </c>
       <c r="J49" s="48" t="n">
-        <v>84.24740000000001</v>
+        <v>1333.46334</v>
       </c>
       <c r="K49" s="48" t="n">
-        <v>138.69931</v>
+        <v>1533.42399</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>32.98833</v>
+        <v>471.7935400000001</v>
       </c>
       <c r="M49" s="48" t="n">
         <v>10.56707</v>
       </c>
-    </row>
-    <row r="50" spans="1:13">
+      <c r="N49" s="48" t="n">
+        <v>14.023</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>277.21586</v>
+        <v>246.07924</v>
       </c>
       <c r="D50" s="48" t="n">
-        <v>611.08861</v>
+        <v>559.90768</v>
       </c>
       <c r="E50" s="48" t="n">
-        <v>1293.70529</v>
+        <v>1594.58113</v>
       </c>
       <c r="F50" s="48" t="n">
-        <v>686.2131800000001</v>
+        <v>2124.07184</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>3212.16816</v>
+        <v>3724.12618</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>7681.848690000001</v>
+        <v>10470.17096</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>5850.21809</v>
+        <v>6242.244809999999</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>3232.62582</v>
+        <v>3447.6059</v>
       </c>
       <c r="K50" s="48" t="n">
-        <v>4754.38141</v>
+        <v>4566.10781</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>4639.886530000001</v>
+        <v>4824.23189</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>6245.686259999999</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>6086.23569</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>9292.767</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
-        <v>2081.05042</v>
+        <v>2087.72155</v>
       </c>
       <c r="D51" s="47" t="n">
-        <v>3603.12901</v>
+        <v>3563.69784</v>
       </c>
       <c r="E51" s="47" t="n">
-        <v>10552.58417</v>
+        <v>10518.49812</v>
       </c>
       <c r="F51" s="47" t="n">
-        <v>4299.825620000001</v>
+        <v>4005.34639</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>6258.04957</v>
+        <v>6015.82048</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>9343.71859</v>
+        <v>8517.60001</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>3637.21922</v>
+        <v>3663.67713</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>13598.19273</v>
+        <v>17924.83016</v>
       </c>
       <c r="K51" s="47" t="n">
-        <v>6752.93144</v>
+        <v>7301.64567</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>12429.19827</v>
+        <v>14345.58796</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>9782.288570000001</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>9988.89508</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>7973.634</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
         <v>0.22906</v>
@@ -2815,203 +2956,231 @@
       <c r="M52" s="48" t="n">
         <v>147.71168</v>
       </c>
-    </row>
-    <row r="53" spans="1:13">
+      <c r="N52" s="48" t="n">
+        <v>196.824</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
-        <v>929.5796</v>
+        <v>1000.2904</v>
       </c>
       <c r="D53" s="48" t="n">
         <v>137.27506</v>
       </c>
       <c r="E53" s="48" t="n">
-        <v>271.16056</v>
+        <v>270.23905</v>
       </c>
       <c r="F53" s="48" t="n">
-        <v>68.95725</v>
+        <v>74.34788</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>783.21104</v>
+        <v>781.0020400000001</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>188.96421</v>
+        <v>177.81958</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>548.99284</v>
+        <v>545.5350999999999</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>302.16215</v>
+        <v>310.8951999999999</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>350.68799</v>
+        <v>130.10095</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>190.95195</v>
+        <v>102.25132</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>182.27182</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>183.0881</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>230.764</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
-        <v>1151.24176</v>
+        <v>1087.20209</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>3465.85395</v>
+        <v>3426.42278</v>
       </c>
       <c r="E54" s="48" t="n">
-        <v>10281.42361</v>
+        <v>10248.25907</v>
       </c>
       <c r="F54" s="48" t="n">
-        <v>4230.86837</v>
+        <v>3930.99851</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>5474.83853</v>
+        <v>5234.81844</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>9094.679330000001</v>
+        <v>8279.705380000001</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>3088.22638</v>
+        <v>3118.14203</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>13296.03058</v>
+        <v>17613.93496</v>
       </c>
       <c r="K54" s="48" t="n">
-        <v>6157.39263</v>
+        <v>6926.6939</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>12063.51317</v>
+        <v>14068.60349</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>9452.30507</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>9658.095300000001</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>7546.046</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
-        <v>-392.3057900000001</v>
+        <v>-1590.0439</v>
       </c>
       <c r="D55" s="47" t="n">
-        <v>-3134.73645</v>
+        <v>-3374.80701</v>
       </c>
       <c r="E55" s="47" t="n">
-        <v>-7403.11586</v>
+        <v>-268.99925</v>
       </c>
       <c r="F55" s="47" t="n">
-        <v>-4915.97221</v>
+        <v>1228.27126</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>-14600.86325</v>
+        <v>-5603.73154</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>-1935.52322</v>
+        <v>4422.674109999999</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>8407.609849999999</v>
+        <v>15928.37027</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>11423.30568</v>
+        <v>-3440.8747</v>
       </c>
       <c r="K55" s="47" t="n">
-        <v>12487.46083</v>
+        <v>25694.00148</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>30520.98182</v>
+        <v>37819.85732</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>70960.62964</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>57222.58395</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>117668.257</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>1664.73392</v>
+        <v>1650.91865</v>
       </c>
       <c r="D56" s="47" t="n">
-        <v>1680.84385</v>
+        <v>2078.2487</v>
       </c>
       <c r="E56" s="47" t="n">
-        <v>1451.85167</v>
+        <v>2077.95188</v>
       </c>
       <c r="F56" s="47" t="n">
-        <v>3277.01919</v>
+        <v>3763.71502</v>
       </c>
       <c r="G56" s="47" t="n">
-        <v>4477.903939999999</v>
+        <v>4358.78393</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>5344.91201</v>
+        <v>6082.1089</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>6310.08101</v>
+        <v>7362.7336</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>6944.84656</v>
+        <v>8131.487800000001</v>
       </c>
       <c r="K56" s="47" t="n">
-        <v>8114.3172</v>
+        <v>12129.3347</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>13252.44607</v>
+        <v>14038.11741</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>14579.00111</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>16440.65401</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>25247.975</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
-        <v>-2057.03971</v>
+        <v>-3240.96255</v>
       </c>
       <c r="D57" s="47" t="n">
-        <v>-4815.5803</v>
+        <v>-5453.05571</v>
       </c>
       <c r="E57" s="47" t="n">
-        <v>-8854.96753</v>
+        <v>-2346.951129999999</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>-8192.991400000001</v>
+        <v>-2535.44376</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>-19078.76719</v>
+        <v>-9962.515469999998</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>-7280.43523</v>
+        <v>-1659.43479</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>2097.52884</v>
+        <v>8565.63667</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>4478.45912</v>
+        <v>-11572.3625</v>
       </c>
       <c r="K57" s="47" t="n">
-        <v>4373.14363</v>
+        <v>13564.66678</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>17268.53575</v>
+        <v>23781.73991</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>56381.62853</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>40781.92993999999</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>92420.28200000001</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,47 +3194,53 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="D59" s="35" t="n">
-        <v>89</v>
+        <v>73</v>
       </c>
       <c r="E59" s="35" t="n">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F59" s="35" t="n">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H59" s="35" t="n">
+        <v>122</v>
+      </c>
+      <c r="I59" s="35" t="n">
+        <v>124</v>
+      </c>
+      <c r="J59" s="35" t="n">
         <v>141</v>
       </c>
-      <c r="I59" s="35" t="n">
-        <v>147</v>
-      </c>
-      <c r="J59" s="35" t="n">
-        <v>174</v>
-      </c>
       <c r="K59" s="35" t="n">
-        <v>188</v>
+        <v>153</v>
       </c>
       <c r="L59" s="35" t="n">
+        <v>128</v>
+      </c>
+      <c r="M59" s="35" t="n">
         <v>148</v>
       </c>
-      <c r="M59" s="35" t="n">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+      <c r="N59" s="35" t="n">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>